--- a/kodilla-good-patterns/Food2Door-Help.xlsx
+++ b/kodilla-good-patterns/Food2Door-Help.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demet\Dropbox\GREEN\INNERJOIN\KODILLA\Projects\Kodilla-Course\kodilla-good-patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FFF29B-C8F4-4693-BBD2-BD424C8A0E23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A4EA15-9890-4EF7-9474-F813D41F569C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9304884E-7199-4BCE-BAC9-9140A4AAC528}"/>
+    <workbookView xWindow="4380" yWindow="240" windowWidth="13260" windowHeight="15225" xr2:uid="{9304884E-7199-4BCE-BAC9-9140A4AAC528}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1679,6 +1680,838 @@
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
             <a:t> offers;</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD79D0BE-8C89-4505-86C1-10CF3E464FA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="3048000"/>
+          <a:ext cx="1400175" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SubOrder</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>String vendor;</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>String produkct;</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>double quantity;</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Arrow: Right 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{220FB270-E896-427B-9363-A69FD0CA99D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="1905000"/>
+          <a:ext cx="1200150" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.retrieve()</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC11DE3B-2605-45A3-B32B-F16F9313B493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601075" y="3048000"/>
+          <a:ext cx="1600200" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>VendorCheckout</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>boolean process()</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38979CCF-7833-4356-94BA-802E8D2F6597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="1724024"/>
+          <a:ext cx="1400175" cy="1133476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OrderInitializer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>List&lt;SubOrder&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>retrieveOrder()</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D27D63C-264A-4818-A4EA-ADF59F28A17C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601075" y="1724024"/>
+          <a:ext cx="1400175" cy="1133476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OrderProcessor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>List&lt;SubOrder&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> subOrders;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.confirmOrder()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Vendor.process()</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E6CB35-9E46-4D0D-BC65-DF576AEAEC5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601075" y="4381500"/>
+          <a:ext cx="1600200" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ExtraFoodShopCheckout</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>boolean process()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{046EC22C-5FCF-4A90-B4A3-CE9439AC4AD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="390524"/>
+          <a:ext cx="1400175" cy="1133476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ApplicationRunner</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>retrieveOrder</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>confirmOrder</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5205670-6D4D-4825-B271-DDB39F7CEC4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10201275" y="1724025"/>
+          <a:ext cx="1400175" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ObjectCreator</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Object create(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>String className</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr lang="pl-PL" sz="1100"/>
         </a:p>
@@ -1988,8 +2821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468E7A7C-818A-47DD-B9F9-EC8C3A79F20C}">
   <dimension ref="BL3:BL8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BS14" sqref="BS14"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,4 +2862,19 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0984C7C7-4C4B-4A6B-BE83-AA5A3F692789}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="BJ6" sqref="BJ6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>